--- a/Output_testing/R1_201907/Country/HKD/MN/NICARAGUA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/NICARAGUA_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>230.599941</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>51.87423807162613</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>151.002429</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>38.31264931369562</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>84.56728099999999</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>19.35565695135178</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>34.822916</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>33.24452004441371</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-39.03956882981984</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>COTTON FABRICS, WOVEN (NOT INCLUDING NARROW OR SPECIAL FABRICS)</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>56.112844</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>12.6227743854107</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>90.398658</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>22.93613490404651</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>61.454995</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>14.06574489685956</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>13.883105</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>13.2538344132697</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-65.18843899827212</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>7.751147</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>1.743646780925111</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>9.633281999999999</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>2.44417627881957</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>13.65113</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>3.124454116933318</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>12.848663</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>12.26627990164341</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>83.33680306394098</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>KNITTED OR CROCHETED FABRICS (INCLUDING TUBULAR KNIT FABRICS, N.E.S., PILE FABRICS AND OPEN-WORK FABRICS), N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>84.37400100000001</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>18.98021741007133</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>84.14837799999999</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>21.35030090562516</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>212.411129</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>48.61640219428751</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>12.237889</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>11.68319006259585</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-93.82238340102272</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>16.554077</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>3.72389571146521</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>14.967387</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>3.797556457011474</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>11.193918</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>2.562050407527726</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>6.830863</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>6.521244858533501</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>2.49837868951297</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>PIGMENTS, PAINTS, VARNISHES AND RELATED MATERIALS</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>5.090846</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>1.14520305705536</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>4.535953</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>1.15087139818397</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>3.727637</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0.8531770462286246</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>4.182226</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>3.992660927283292</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>135.6558055984106</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>5.223054</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>1.174943694616813</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>5.567916</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>1.412703189801767</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>6.562894</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>1.50210723781086</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>3.69705</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>3.529476188329539</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-19.65097219487451</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>TEXTILE YARN</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>1.149461</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.2585751466781574</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>1.642187</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.4166590898912618</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>1.855212</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.4246186778079247</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>2.225803</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>2.124915456488945</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>41.45653385565453</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>1.709294</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.3845114769149144</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>2.692892</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.683246140601198</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>3.717232</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.8507955624183691</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>2.022473</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.930801664851546</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>21.04361638267171</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>5.852046</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>1.316437576235578</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>6.49336</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1.647508759925833</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>5.757487</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>1.317766658169694</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>1.700992</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.623892227732662</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-59.2187122019098</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>30.119825</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>6.775556689000699</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>23.049605</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>5.848193562397629</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>32.013566</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>7.327226250604638</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>10.295858</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>9.829184254857843</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-56.36435099701587</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,581 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>1.372482</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>95.49680559865628</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>1.994067</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>97.34307252059318</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>1.537166</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>92.47045716499473</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>0.811422</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>93.16612721183179</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-15.51295800751762</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>0.5510011814623136</v>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>0.3680752787169501</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>4.259016851026149</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>3.570735560732587</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>79.47253000923359</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>1.359099138464878</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>1.746844267056677</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>0.4266295782070008</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>3.258659312169252</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>679.9120637537785</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>0.1009600598941555</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>875</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>2.492134021522375</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>0.5394206670851855</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>2.8436557799525</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>LIVE ANIMALS OTHER THAN ANIMALS OF DIVISION 03</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>MEAT AND EDIBLE MEAT OFFAL, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1874,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>230.599941</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>52.04249325276575</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>151.002429</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>38.51281897560238</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>84.56728099999999</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>19.42958117172293</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>34.822916</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>33.52325397244009</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-39.03956882981984</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>COTTON FABRICS, WOVEN (NOT INCLUDING NARROW OR SPECIAL FABRICS)</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>56.112844</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>12.6637166193529</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>90.398658</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>23.05596786917507</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>61.454995</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>14.11946558575446</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>13.883105</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>13.36495929407672</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-65.18843899827212</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>7.731614</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>1.744894069283345</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>9.597498</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>2.447819585026052</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>13.644038</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>3.134757801082338</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>12.820282</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>12.34180300938331</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>83.02687237939695</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>KNITTED OR CROCHETED FABRICS (INCLUDING TUBULAR KNIT FABRICS, N.E.S., PILE FABRICS AND OPEN-WORK FABRICS), N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>84.37400100000001</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>19.04178014404328</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>84.14837799999999</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>21.46184846473272</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>212.411129</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>48.80208070876502</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>12.237889</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>11.7811461002729</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-93.82238340102272</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>15.181595</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>3.426228349961817</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>12.97332</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>3.308815149407708</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>9.656751999999999</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>2.218667132495341</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>6.019441</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>5.794783223068359</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>5.531059868666488</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>PIGMENTS, PAINTS, VARNISHES AND RELATED MATERIALS</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>5.090846</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>1.148917547233325</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>4.535953</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>1.156884282774289</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>3.727637</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>0.856435548285131</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>4.182226</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>4.026136822319596</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>135.6558055984106</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>5.187237</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>1.170671360115382</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>5.556866</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>1.417265773451099</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>6.515623</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>1.49698351970007</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>3.69705</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>3.559068577106226</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-19.39777412670839</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>TEXTILE YARN</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>1.149461</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.2594138405994535</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>1.642187</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.4188359821356751</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>1.855212</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.4262404054915097</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>2.225803</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>2.142731506506206</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>41.45653385565453</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>1.701375</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.3839714640600205</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>2.685352</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.6848927937561309</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>3.646433</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.8377786908006319</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>1.991374</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.917051873430528</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>20.43131835733747</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>5.852046</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>1.320707469174395</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>6.49336</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.656116394150305</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>5.757487</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.322799547163394</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>1.700992</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.637507520079272</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-59.2187122019098</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>30.118374</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>6.797205883410333</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>23.049552</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>5.878734729788576</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>32.013562</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>7.355209888739177</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>10.295819</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>9.911558101316793</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-56.36450888845066</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2332,457 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>66.45903300000001</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>54.85626619592713</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>78.876919</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>52.43138160438531</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>152.971562</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>65.27095517936596</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>87.084869</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>59.13015429880297</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-8.113629862320703</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>FIXED VEGETABLE FATS AND OILS, `SOFT', CRUDE, REFINED OR FRACTIONATED</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>36.27932</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>29.94548589545717</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>38.567001</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>25.63641141672521</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>28.440194</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>12.13505702364778</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>20.619903</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>14.00080243579801</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-14.48824373702233</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>0.1227069823443372</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>4.915439</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>3.267410304934427</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>12.720043</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>5.427475183476309</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>8.735699</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>5.931492298368146</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>21.10693836628375</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>843</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, CAPES, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>3.359984</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>2.773380357761992</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>4.242562</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>2.820132809729347</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>8.749324</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>3.733221568684451</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>8.637822</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>5.865034345582984</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>150.568838955874</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>4.111042</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>3.393314710050576</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>3.679667</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>2.445962990188089</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>6.941017</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>2.961640736244931</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>6.882795</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>4.673380519835536</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>62.28934531523223</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>4.650711</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>3.157807575379602</v>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>0.2640197339008765</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>2.077768</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.8865562999292694</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>4.388519</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>2.979780627714196</v>
+      </c>
+      <c r="K63" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>2.904418</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>2.397349461167187</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>5.2013</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>3.457428974106979</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>6.923182</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>2.954030776129442</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>3.025021</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>2.053972871993633</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-18.95197730349608</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>3.077152</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>2.539926652819784</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>6.516211</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>4.331481881990005</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>3.398363</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>1.450036831396254</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>1.01541</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0.6894578893670671</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-62.72687962376323</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE ANIMAL MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>1.384441</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>1.14273802371689</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>4.021863</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>2.673428886257054</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>1.551822</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>0.6621420536214047</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>0.850525</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.5775018675746002</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-23.72855517164382</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>3.425203</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>2.827213082427609</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>4.020227</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>2.672341397782704</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>10.590634</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>4.518884347504206</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>1.385306</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>0.9406152695832563</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-54.91872844875279</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
